--- a/12T1_attendance.xlsx
+++ b/12T1_attendance.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,25 +458,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>HS****44</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Đoàn</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14:18:19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Trễ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>HS****15</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Nguyễn Quốc Hưng</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>2025-12-17</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>13:54:09</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Trễ</t>
         </is>
